--- a/Documentation/Gantt Chart.xlsx
+++ b/Documentation/Gantt Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\University\Semester 3\Individual Project\individual-project\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\University\Semester 3\level-up\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE48BE8-E8A7-45A8-B9A0-E1273B369CA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB63052-0D7C-4D23-9C22-774115AA0586}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,12 +245,6 @@
     <t>Project Plan</t>
   </si>
   <si>
-    <t>Login backend</t>
-  </si>
-  <si>
-    <t>Register  backend</t>
-  </si>
-  <si>
     <t>Login frontend</t>
   </si>
   <si>
@@ -267,6 +261,12 @@
   </si>
   <si>
     <t>Final touches</t>
+  </si>
+  <si>
+    <t>Connection with frontend</t>
+  </si>
+  <si>
+    <t>Design Document</t>
   </si>
 </sst>
 </file>
@@ -906,13 +906,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -937,10 +930,25 @@
     <xf numFmtId="166" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -951,14 +959,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1039,7 +1039,7 @@
                   <c:v>Sprint 2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Login backend</c:v>
+                  <c:v>Design Document</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Implement database</c:v>
@@ -1048,7 +1048,7 @@
                   <c:v>Project Plan</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Register  backend</c:v>
+                  <c:v>Connection with frontend</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Sprint 3</c:v>
@@ -1200,7 +1200,7 @@
                   <c:v>Sprint 2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Login backend</c:v>
+                  <c:v>Design Document</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Implement database</c:v>
@@ -1209,7 +1209,7 @@
                   <c:v>Project Plan</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Register  backend</c:v>
+                  <c:v>Connection with frontend</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Sprint 3</c:v>
@@ -1359,7 +1359,7 @@
                   <c:v>Sprint 2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Login backend</c:v>
+                  <c:v>Design Document</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Implement database</c:v>
@@ -1368,7 +1368,7 @@
                   <c:v>Project Plan</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Register  backend</c:v>
+                  <c:v>Connection with frontend</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Sprint 3</c:v>
@@ -1506,7 +1506,7 @@
                   <c:v>Sprint 2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Login backend</c:v>
+                  <c:v>Design Document</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Implement database</c:v>
@@ -1515,7 +1515,7 @@
                   <c:v>Project Plan</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Register  backend</c:v>
+                  <c:v>Connection with frontend</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Sprint 3</c:v>
@@ -2134,7 +2134,7 @@
   <dimension ref="A1:AL51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2175,67 +2175,67 @@
       <c r="G2" s="94"/>
     </row>
     <row r="3" spans="1:38" ht="26.45" customHeight="1">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="117" t="s">
+      <c r="E3" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="121" t="s">
+      <c r="G3" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
       <c r="M3" s="63"/>
       <c r="N3" s="63"/>
       <c r="O3" s="63"/>
       <c r="P3" s="63"/>
       <c r="Q3" s="63"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="114"/>
-      <c r="AH3" s="115"/>
-      <c r="AI3" s="115"/>
-      <c r="AJ3" s="115"/>
-      <c r="AK3" s="115"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="123"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="123"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="123"/>
+      <c r="AD3" s="123"/>
+      <c r="AE3" s="123"/>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="123"/>
+      <c r="AI3" s="123"/>
+      <c r="AJ3" s="123"/>
+      <c r="AK3" s="123"/>
       <c r="AL3" s="63"/>
     </row>
     <row r="4" spans="1:38" ht="30.75" customHeight="1">
-      <c r="A4" s="118"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="122"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="119"/>
       <c r="H4" s="44"/>
       <c r="I4" s="44"/>
       <c r="J4" s="44"/>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="13" spans="1:38" ht="18.600000000000001" customHeight="1">
       <c r="A13" s="71" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B13" s="72">
         <v>44265</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="16" spans="1:38" s="52" customFormat="1" ht="29.25" customHeight="1">
       <c r="A16" s="71" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B16" s="72">
         <v>44265</v>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="20" spans="1:7" ht="21">
       <c r="A20" s="71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="72">
         <v>44284</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="21" spans="1:7" ht="21">
       <c r="A21" s="71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21" s="72">
         <v>44284</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="25" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A25" s="71" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" s="72">
         <v>44306</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="27" spans="1:7" ht="21">
       <c r="A27" s="71" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B27" s="72">
         <v>44284</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="30" spans="1:7" ht="21">
       <c r="A30" s="87" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B30" s="88">
         <v>44337</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
       <c r="A34" s="87" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B34" s="88">
         <v>44353</v>
@@ -2964,6 +2964,11 @@
     <row r="51" ht="20.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="R3:V3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="F3:F4"/>
@@ -2971,11 +2976,6 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="R3:V3"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="G16:G17">
@@ -3248,15 +3248,15 @@
       <c r="BO2" s="2"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -3457,118 +3457,118 @@
       <c r="BO5" s="2"/>
     </row>
     <row r="6" spans="1:67" ht="15">
-      <c r="A6" s="127"/>
-      <c r="B6" s="127" t="s">
+      <c r="A6" s="131"/>
+      <c r="B6" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="127" t="s">
+      <c r="D6" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="127" t="s">
+      <c r="E6" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="127" t="s">
+      <c r="F6" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="131" t="s">
+      <c r="G6" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="133" t="s">
+      <c r="H6" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="125" t="s">
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="133" t="s">
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="125" t="s">
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="133" t="s">
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129"/>
+      <c r="Z6" s="129"/>
+      <c r="AA6" s="129"/>
+      <c r="AB6" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="126"/>
-      <c r="AF6" s="126"/>
-      <c r="AG6" s="125" t="s">
+      <c r="AC6" s="129"/>
+      <c r="AD6" s="129"/>
+      <c r="AE6" s="129"/>
+      <c r="AF6" s="129"/>
+      <c r="AG6" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="AH6" s="126"/>
-      <c r="AI6" s="126"/>
-      <c r="AJ6" s="126"/>
-      <c r="AK6" s="126"/>
-      <c r="AL6" s="133" t="s">
+      <c r="AH6" s="129"/>
+      <c r="AI6" s="129"/>
+      <c r="AJ6" s="129"/>
+      <c r="AK6" s="129"/>
+      <c r="AL6" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="AM6" s="126"/>
-      <c r="AN6" s="126"/>
-      <c r="AO6" s="126"/>
-      <c r="AP6" s="126"/>
-      <c r="AQ6" s="125" t="s">
+      <c r="AM6" s="129"/>
+      <c r="AN6" s="129"/>
+      <c r="AO6" s="129"/>
+      <c r="AP6" s="129"/>
+      <c r="AQ6" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="AR6" s="126"/>
-      <c r="AS6" s="126"/>
-      <c r="AT6" s="126"/>
-      <c r="AU6" s="126"/>
-      <c r="AV6" s="133" t="s">
+      <c r="AR6" s="129"/>
+      <c r="AS6" s="129"/>
+      <c r="AT6" s="129"/>
+      <c r="AU6" s="129"/>
+      <c r="AV6" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="AW6" s="126"/>
-      <c r="AX6" s="126"/>
-      <c r="AY6" s="126"/>
-      <c r="AZ6" s="126"/>
-      <c r="BA6" s="125" t="s">
+      <c r="AW6" s="129"/>
+      <c r="AX6" s="129"/>
+      <c r="AY6" s="129"/>
+      <c r="AZ6" s="129"/>
+      <c r="BA6" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="BB6" s="126"/>
-      <c r="BC6" s="126"/>
-      <c r="BD6" s="126"/>
-      <c r="BE6" s="126"/>
-      <c r="BF6" s="133" t="s">
+      <c r="BB6" s="129"/>
+      <c r="BC6" s="129"/>
+      <c r="BD6" s="129"/>
+      <c r="BE6" s="129"/>
+      <c r="BF6" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="BG6" s="126"/>
-      <c r="BH6" s="126"/>
-      <c r="BI6" s="126"/>
-      <c r="BJ6" s="126"/>
-      <c r="BK6" s="125" t="s">
+      <c r="BG6" s="129"/>
+      <c r="BH6" s="129"/>
+      <c r="BI6" s="129"/>
+      <c r="BJ6" s="129"/>
+      <c r="BK6" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="BL6" s="126"/>
-      <c r="BM6" s="126"/>
-      <c r="BN6" s="126"/>
-      <c r="BO6" s="126"/>
+      <c r="BL6" s="129"/>
+      <c r="BM6" s="129"/>
+      <c r="BN6" s="129"/>
+      <c r="BO6" s="129"/>
     </row>
     <row r="7" spans="1:67" ht="15">
-      <c r="A7" s="128"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="132"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="136"/>
       <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
@@ -3755,11 +3755,11 @@
         <v>24</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
@@ -4306,11 +4306,11 @@
         <v>36</v>
       </c>
       <c r="B15" s="35"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
       <c r="H15" s="36"/>
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
@@ -4701,11 +4701,11 @@
         <v>41</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
       <c r="H20" s="36"/>
       <c r="I20" s="37"/>
       <c r="J20" s="38"/>
@@ -5258,11 +5258,11 @@
         <v>48</v>
       </c>
       <c r="B27" s="35"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
       <c r="H27" s="36"/>
       <c r="I27" s="37"/>
       <c r="J27" s="38"/>
@@ -8629,14 +8629,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="BF6:BJ6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="W6:AA6"/>
     <mergeCell ref="BK6:BO6"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="A3:G3"/>
@@ -8653,6 +8645,14 @@
     <mergeCell ref="AG6:AK6"/>
     <mergeCell ref="AB6:AF6"/>
     <mergeCell ref="R6:V6"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="BF6:BJ6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="W6:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="G9:G14 G16:G19 G21:G26 G28:G31">
     <cfRule type="colorScale" priority="1">

--- a/Documentation/Gantt Chart.xlsx
+++ b/Documentation/Gantt Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\University\Semester 3\level-up\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\University\Semester 3\Individual Project\level-up\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB63052-0D7C-4D23-9C22-774115AA0586}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FF72D3-F19B-4552-B68D-C2AA710CDFE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="81">
   <si>
     <t>GANTT CHART TEMPLATE</t>
   </si>
@@ -245,12 +245,6 @@
     <t>Project Plan</t>
   </si>
   <si>
-    <t>Login frontend</t>
-  </si>
-  <si>
-    <t>Register frontend</t>
-  </si>
-  <si>
     <t>Home frontend</t>
   </si>
   <si>
@@ -267,6 +261,21 @@
   </si>
   <si>
     <t>Design Document</t>
+  </si>
+  <si>
+    <t>Home Page - Design</t>
+  </si>
+  <si>
+    <t>Login Page - Design</t>
+  </si>
+  <si>
+    <t>Register Page - Design</t>
+  </si>
+  <si>
+    <t>Settings Page - Design</t>
+  </si>
+  <si>
+    <t>Unit tests/Sonarqube implementation</t>
   </si>
 </sst>
 </file>
@@ -385,7 +394,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,12 +525,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF009999"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -900,11 +903,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="16" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -930,25 +938,10 @@
     <xf numFmtId="166" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -959,6 +952,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1017,9 +1018,9 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Basic Gantt Chart'!$A$5:$A$34</c:f>
+              <c:f>'Basic Gantt Chart'!$A$5:$A$39</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>Sprint 1</c:v>
                 </c:pt>
@@ -1053,40 +1054,46 @@
                 <c:pt idx="13">
                   <c:v>Sprint 3</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>Home Page - Design</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Settings Page - Design</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Unit tests/Sonarqube implementation</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Login Page - Design</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Register Page - Design</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Home backend</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>Project Plan</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Login frontend</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Register frontend</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Sprint 4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Home backend</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
+                  <c:v>Home frontend</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Settings Page</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>Project Plan</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>Home frontend</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Sprint 5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Settings Page</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Project Plan</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>Sprint 6</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>Final touches</c:v>
                 </c:pt>
               </c:strCache>
@@ -1094,10 +1101,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Basic Gantt Chart'!$D$5:$D$34</c:f>
+              <c:f>'Basic Gantt Chart'!$D$5:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1122,22 +1129,22 @@
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
@@ -1146,7 +1153,13 @@
                 <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1178,9 +1191,9 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Basic Gantt Chart'!$A$5:$A$34</c:f>
+              <c:f>'Basic Gantt Chart'!$A$5:$A$39</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>Sprint 1</c:v>
                 </c:pt>
@@ -1214,40 +1227,46 @@
                 <c:pt idx="13">
                   <c:v>Sprint 3</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>Home Page - Design</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Settings Page - Design</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Unit tests/Sonarqube implementation</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Login Page - Design</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Register Page - Design</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Home backend</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>Project Plan</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Login frontend</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Register frontend</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Sprint 4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Home backend</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
+                  <c:v>Home frontend</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Settings Page</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>Project Plan</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>Home frontend</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Sprint 5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Settings Page</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Project Plan</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>Sprint 6</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>Final touches</c:v>
                 </c:pt>
               </c:strCache>
@@ -1255,10 +1274,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Basic Gantt Chart'!$E$3:$E$35</c:f>
+              <c:f>'Basic Gantt Chart'!$E$3:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1275,33 +1294,33 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
@@ -1310,7 +1329,13 @@
                 <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1337,9 +1362,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Basic Gantt Chart'!$A$5:$A$34</c:f>
+              <c:f>'Basic Gantt Chart'!$A$5:$A$39</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>Sprint 1</c:v>
                 </c:pt>
@@ -1373,40 +1398,46 @@
                 <c:pt idx="13">
                   <c:v>Sprint 3</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>Home Page - Design</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Settings Page - Design</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Unit tests/Sonarqube implementation</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Login Page - Design</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Register Page - Design</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Home backend</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>Project Plan</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Login frontend</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Register frontend</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Sprint 4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Home backend</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
+                  <c:v>Home frontend</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Settings Page</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>Project Plan</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>Home frontend</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Sprint 5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Settings Page</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Project Plan</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>Sprint 6</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>Final touches</c:v>
                 </c:pt>
               </c:strCache>
@@ -1414,10 +1445,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Basic Gantt Chart'!$F$5:$F$34</c:f>
+              <c:f>'Basic Gantt Chart'!$F$5:$F$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1442,22 +1473,22 @@
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
@@ -1466,7 +1497,13 @@
                 <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1484,9 +1521,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Basic Gantt Chart'!$A$5:$A$34</c:f>
+              <c:f>'Basic Gantt Chart'!$A$5:$A$39</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>Sprint 1</c:v>
                 </c:pt>
@@ -1520,40 +1557,46 @@
                 <c:pt idx="13">
                   <c:v>Sprint 3</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>Home Page - Design</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Settings Page - Design</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Unit tests/Sonarqube implementation</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Login Page - Design</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Register Page - Design</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Home backend</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>Project Plan</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Login frontend</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Register frontend</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Sprint 4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Home backend</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
+                  <c:v>Home frontend</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Settings Page</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>Project Plan</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>Home frontend</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Sprint 5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Settings Page</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Project Plan</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>Sprint 6</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>Final touches</c:v>
                 </c:pt>
               </c:strCache>
@@ -1561,10 +1604,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Basic Gantt Chart'!$G$5:$G$34</c:f>
+              <c:f>'Basic Gantt Chart'!$G$5:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1578,33 +1621,33 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
@@ -1613,7 +1656,13 @@
                 <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2131,10 +2180,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL51"/>
+  <dimension ref="A1:AL56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2175,67 +2224,67 @@
       <c r="G2" s="94"/>
     </row>
     <row r="3" spans="1:38" ht="26.45" customHeight="1">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="116" t="s">
+      <c r="F3" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="118" t="s">
+      <c r="G3" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="124"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
       <c r="M3" s="63"/>
       <c r="N3" s="63"/>
       <c r="O3" s="63"/>
       <c r="P3" s="63"/>
       <c r="Q3" s="63"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="122"/>
-      <c r="AH3" s="123"/>
-      <c r="AI3" s="123"/>
-      <c r="AJ3" s="123"/>
-      <c r="AK3" s="123"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="114"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="115"/>
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="114"/>
+      <c r="AH3" s="115"/>
+      <c r="AI3" s="115"/>
+      <c r="AJ3" s="115"/>
+      <c r="AK3" s="115"/>
       <c r="AL3" s="63"/>
     </row>
     <row r="4" spans="1:38" ht="30.75" customHeight="1">
-      <c r="A4" s="115"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="119"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="122"/>
       <c r="H4" s="44"/>
       <c r="I4" s="44"/>
       <c r="J4" s="44"/>
@@ -2264,7 +2313,7 @@
       <c r="AG4" s="44"/>
     </row>
     <row r="5" spans="1:38" ht="27.75" customHeight="1">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="112" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="67"/>
@@ -2554,7 +2603,7 @@
     </row>
     <row r="13" spans="1:38" ht="18.600000000000001" customHeight="1">
       <c r="A13" s="71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13" s="72">
         <v>44265</v>
@@ -2566,13 +2615,13 @@
         <v>55</v>
       </c>
       <c r="E13" s="75">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13" s="76" t="s">
         <v>56</v>
       </c>
       <c r="G13" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="21">
@@ -2589,13 +2638,13 @@
         <v>55</v>
       </c>
       <c r="E14" s="75">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F14" s="76" t="s">
         <v>56</v>
       </c>
       <c r="G14" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="21">
@@ -2612,18 +2661,18 @@
         <v>55</v>
       </c>
       <c r="E15" s="75">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F15" s="76" t="s">
         <v>56</v>
       </c>
       <c r="G15" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:38" s="52" customFormat="1" ht="29.25" customHeight="1">
       <c r="A16" s="71" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="72">
         <v>44265</v>
@@ -2635,13 +2684,13 @@
         <v>55</v>
       </c>
       <c r="E16" s="75">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F16" s="76" t="s">
         <v>56</v>
       </c>
       <c r="G16" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="52" customFormat="1" ht="16.5" customHeight="1">
@@ -2665,31 +2714,17 @@
       <c r="G18" s="103"/>
     </row>
     <row r="19" spans="1:7" s="52" customFormat="1" ht="21">
-      <c r="A19" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="72">
-        <v>44284</v>
-      </c>
-      <c r="C19" s="73">
-        <v>44305</v>
-      </c>
-      <c r="D19" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="75">
-        <v>0</v>
-      </c>
-      <c r="F19" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="77">
-        <v>0</v>
-      </c>
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="77"/>
     </row>
     <row r="20" spans="1:7" ht="21">
       <c r="A20" s="71" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B20" s="72">
         <v>44284</v>
@@ -2701,18 +2736,18 @@
         <v>54</v>
       </c>
       <c r="E20" s="75">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F20" s="76" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="21">
       <c r="A21" s="71" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B21" s="72">
         <v>44284</v>
@@ -2724,234 +2759,316 @@
         <v>54</v>
       </c>
       <c r="E21" s="75">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F21" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="112">
+      <c r="G21" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="56.25" customHeight="1">
+      <c r="A22" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="72">
+        <v>44284</v>
+      </c>
+      <c r="C22" s="73">
+        <v>44305</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="75">
+        <v>10</v>
+      </c>
+      <c r="F22" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="113" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A23" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="72">
+        <v>44284</v>
+      </c>
+      <c r="C23" s="73">
+        <v>44305</v>
+      </c>
+      <c r="D23" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="75">
+        <v>10</v>
+      </c>
+      <c r="F23" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="113" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A24" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="72">
+        <v>44284</v>
+      </c>
+      <c r="C24" s="73">
+        <v>44305</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="75">
+        <v>10</v>
+      </c>
+      <c r="F24" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="113" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A25" s="71"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="77"/>
+    </row>
+    <row r="26" spans="1:7" s="113" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="77"/>
+    </row>
+    <row r="27" spans="1:7" s="52" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A27" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
+    </row>
+    <row r="28" spans="1:7" ht="21">
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="77"/>
+    </row>
+    <row r="29" spans="1:7" ht="18.600000000000001" customHeight="1">
+      <c r="A29" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="72">
+        <v>44306</v>
+      </c>
+      <c r="C29" s="73">
+        <v>44335</v>
+      </c>
+      <c r="D29" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="75">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A22" s="71"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77"/>
-    </row>
-    <row r="23" spans="1:7" s="52" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A23" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
-    </row>
-    <row r="24" spans="1:7" ht="21">
-      <c r="A24" s="71"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="77"/>
-    </row>
-    <row r="25" spans="1:7" ht="18.600000000000001" customHeight="1">
-      <c r="A25" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="72">
+      <c r="F29" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="52" customFormat="1" ht="21">
+      <c r="A30" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="72">
         <v>44306</v>
       </c>
-      <c r="C25" s="73">
+      <c r="C30" s="73">
         <v>44335</v>
       </c>
-      <c r="D25" s="85" t="s">
+      <c r="D30" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="75">
+      <c r="E30" s="75">
         <v>0</v>
       </c>
-      <c r="F25" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="52" customFormat="1" ht="21">
-      <c r="A26" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="72">
-        <v>44306</v>
-      </c>
-      <c r="C26" s="73">
-        <v>44335</v>
-      </c>
-      <c r="D26" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="75">
-        <v>0</v>
-      </c>
-      <c r="F26" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="21">
-      <c r="A27" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="72">
-        <v>44284</v>
-      </c>
-      <c r="C27" s="73">
-        <v>44305</v>
-      </c>
-      <c r="D27" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="75">
-        <v>0</v>
-      </c>
-      <c r="F27" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A28" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
-    </row>
-    <row r="29" spans="1:7" ht="21">
-      <c r="A29" s="71"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="77"/>
-    </row>
-    <row r="30" spans="1:7" ht="21">
-      <c r="A30" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="88">
-        <v>44337</v>
-      </c>
-      <c r="C30" s="88">
-        <v>44351</v>
-      </c>
-      <c r="D30" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="90">
-        <v>0</v>
-      </c>
-      <c r="F30" s="106" t="s">
+      <c r="F30" s="76" t="s">
         <v>56</v>
       </c>
       <c r="G30" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="34.5" customHeight="1">
-      <c r="A31" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="88">
-        <v>44337</v>
-      </c>
-      <c r="C31" s="88">
-        <v>44351</v>
-      </c>
-      <c r="D31" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="90">
+    <row r="31" spans="1:7" ht="21">
+      <c r="A31" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="72">
+        <v>44284</v>
+      </c>
+      <c r="C31" s="73">
+        <v>44305</v>
+      </c>
+      <c r="D31" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="75">
         <v>0</v>
       </c>
-      <c r="F31" s="106" t="s">
+      <c r="F31" s="76" t="s">
         <v>56</v>
       </c>
       <c r="G31" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A32" s="86" t="s">
+    <row r="32" spans="1:7" s="113" customFormat="1" ht="21">
+      <c r="A32" s="71"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="77"/>
+    </row>
+    <row r="33" spans="1:8" s="52" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A33" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="60"/>
+    </row>
+    <row r="34" spans="1:8" ht="21">
+      <c r="A34" s="71"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="77"/>
+    </row>
+    <row r="35" spans="1:8" ht="21">
+      <c r="A35" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="88">
+        <v>44337</v>
+      </c>
+      <c r="C35" s="88">
+        <v>44351</v>
+      </c>
+      <c r="D35" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="90">
+        <v>0</v>
+      </c>
+      <c r="F35" s="106" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="34.5" customHeight="1">
+      <c r="A36" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="88">
+        <v>44337</v>
+      </c>
+      <c r="C36" s="88">
+        <v>44351</v>
+      </c>
+      <c r="D36" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="90">
+        <v>0</v>
+      </c>
+      <c r="F36" s="106" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A37" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="60"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="92"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="110"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="88">
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A38" s="92"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="110"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A39" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="88">
         <v>44353</v>
       </c>
-      <c r="C34" s="88">
+      <c r="C39" s="88">
         <v>44367</v>
       </c>
-      <c r="D34" s="89" t="s">
+      <c r="D39" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="90">
+      <c r="E39" s="90">
         <v>0</v>
       </c>
-      <c r="F34" s="106" t="s">
+      <c r="F39" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="77">
+      <c r="G39" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="D35" s="100"/>
-      <c r="G35" s="77"/>
-    </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="H36" s="52"/>
-    </row>
-    <row r="37" spans="1:8" ht="20.25"/>
-    <row r="38" spans="1:8" ht="20.25"/>
-    <row r="39" spans="1:8" ht="20.25"/>
-    <row r="40" spans="1:8" ht="20.25"/>
-    <row r="41" spans="1:8" ht="20.25"/>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+      <c r="D40" s="100"/>
+      <c r="G40" s="77"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="H41" s="52"/>
+    </row>
     <row r="42" spans="1:8" ht="20.25"/>
     <row r="43" spans="1:8" ht="20.25"/>
     <row r="44" spans="1:8" ht="20.25"/>
@@ -2962,13 +3079,13 @@
     <row r="49" ht="20.25"/>
     <row r="50" ht="20.25"/>
     <row r="51" ht="20.25"/>
+    <row r="52" ht="20.25"/>
+    <row r="53" ht="20.25"/>
+    <row r="54" ht="20.25"/>
+    <row r="55" ht="20.25"/>
+    <row r="56" ht="20.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="R3:V3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="F3:F4"/>
@@ -2976,9 +3093,54 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="R3:V3"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="G16:G17">
+  <conditionalFormatting sqref="G17">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF5CBCD6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G10 G29 G13:G15 G20:G22">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF5CBCD6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF5CBCD6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G40">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF5CBCD6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -2988,8 +3150,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G15 G25 G20:G22 G6:G10">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="G28">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF5CBCD6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF5CBCD6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -2999,46 +3181,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF5CBCD6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34:G35">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF5CBCD6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF5CBCD6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF5CBCD6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -3048,7 +3190,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
+  <conditionalFormatting sqref="G31:G32">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF5CBCD6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -3058,7 +3210,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="G23:G24 G26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -3068,7 +3220,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
+  <conditionalFormatting sqref="G25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -3079,7 +3231,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C19:C22 B25:C25 B6:C10 C13:C17 C24 C29 C26:C27" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C30:C32 B29:C29 B6:C10 C13:C17 C28 C34 C19:C26" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(B6))), AND(ISNUMBER(B6), LEFT(CELL("format", B6))="D"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -3248,15 +3400,15 @@
       <c r="BO2" s="2"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -3457,118 +3609,118 @@
       <c r="BO5" s="2"/>
     </row>
     <row r="6" spans="1:67" ht="15">
-      <c r="A6" s="131"/>
-      <c r="B6" s="131" t="s">
+      <c r="A6" s="127"/>
+      <c r="B6" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="131" t="s">
+      <c r="D6" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="131" t="s">
+      <c r="E6" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="131" t="s">
+      <c r="F6" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="135" t="s">
+      <c r="G6" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="128" t="s">
+      <c r="H6" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="130" t="s">
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="128" t="s">
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="129"/>
-      <c r="T6" s="129"/>
-      <c r="U6" s="129"/>
-      <c r="V6" s="129"/>
-      <c r="W6" s="130" t="s">
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="129"/>
-      <c r="Y6" s="129"/>
-      <c r="Z6" s="129"/>
-      <c r="AA6" s="129"/>
-      <c r="AB6" s="128" t="s">
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="AC6" s="129"/>
-      <c r="AD6" s="129"/>
-      <c r="AE6" s="129"/>
-      <c r="AF6" s="129"/>
-      <c r="AG6" s="130" t="s">
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="AH6" s="129"/>
-      <c r="AI6" s="129"/>
-      <c r="AJ6" s="129"/>
-      <c r="AK6" s="129"/>
-      <c r="AL6" s="128" t="s">
+      <c r="AH6" s="126"/>
+      <c r="AI6" s="126"/>
+      <c r="AJ6" s="126"/>
+      <c r="AK6" s="126"/>
+      <c r="AL6" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="AM6" s="129"/>
-      <c r="AN6" s="129"/>
-      <c r="AO6" s="129"/>
-      <c r="AP6" s="129"/>
-      <c r="AQ6" s="130" t="s">
+      <c r="AM6" s="126"/>
+      <c r="AN6" s="126"/>
+      <c r="AO6" s="126"/>
+      <c r="AP6" s="126"/>
+      <c r="AQ6" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="AR6" s="129"/>
-      <c r="AS6" s="129"/>
-      <c r="AT6" s="129"/>
-      <c r="AU6" s="129"/>
-      <c r="AV6" s="128" t="s">
+      <c r="AR6" s="126"/>
+      <c r="AS6" s="126"/>
+      <c r="AT6" s="126"/>
+      <c r="AU6" s="126"/>
+      <c r="AV6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AW6" s="129"/>
-      <c r="AX6" s="129"/>
-      <c r="AY6" s="129"/>
-      <c r="AZ6" s="129"/>
-      <c r="BA6" s="130" t="s">
+      <c r="AW6" s="126"/>
+      <c r="AX6" s="126"/>
+      <c r="AY6" s="126"/>
+      <c r="AZ6" s="126"/>
+      <c r="BA6" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="BB6" s="129"/>
-      <c r="BC6" s="129"/>
-      <c r="BD6" s="129"/>
-      <c r="BE6" s="129"/>
-      <c r="BF6" s="128" t="s">
+      <c r="BB6" s="126"/>
+      <c r="BC6" s="126"/>
+      <c r="BD6" s="126"/>
+      <c r="BE6" s="126"/>
+      <c r="BF6" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="BG6" s="129"/>
-      <c r="BH6" s="129"/>
-      <c r="BI6" s="129"/>
-      <c r="BJ6" s="129"/>
-      <c r="BK6" s="130" t="s">
+      <c r="BG6" s="126"/>
+      <c r="BH6" s="126"/>
+      <c r="BI6" s="126"/>
+      <c r="BJ6" s="126"/>
+      <c r="BK6" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="BL6" s="129"/>
-      <c r="BM6" s="129"/>
-      <c r="BN6" s="129"/>
-      <c r="BO6" s="129"/>
+      <c r="BL6" s="126"/>
+      <c r="BM6" s="126"/>
+      <c r="BN6" s="126"/>
+      <c r="BO6" s="126"/>
     </row>
     <row r="7" spans="1:67" ht="15">
-      <c r="A7" s="132"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="136"/>
+      <c r="A7" s="128"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="132"/>
       <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
@@ -3755,11 +3907,11 @@
         <v>24</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
@@ -4306,11 +4458,11 @@
         <v>36</v>
       </c>
       <c r="B15" s="35"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135"/>
       <c r="H15" s="36"/>
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
@@ -4701,11 +4853,11 @@
         <v>41</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
       <c r="H20" s="36"/>
       <c r="I20" s="37"/>
       <c r="J20" s="38"/>
@@ -5258,11 +5410,11 @@
         <v>48</v>
       </c>
       <c r="B27" s="35"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
       <c r="H27" s="36"/>
       <c r="I27" s="37"/>
       <c r="J27" s="38"/>
@@ -8629,6 +8781,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="BF6:BJ6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="W6:AA6"/>
     <mergeCell ref="BK6:BO6"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="A3:G3"/>
@@ -8645,14 +8805,6 @@
     <mergeCell ref="AG6:AK6"/>
     <mergeCell ref="AB6:AF6"/>
     <mergeCell ref="R6:V6"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="BF6:BJ6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="W6:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="G9:G14 G16:G19 G21:G26 G28:G31">
     <cfRule type="colorScale" priority="1">
